--- a/html-simulations.xlsx
+++ b/html-simulations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>SNO</t>
   </si>
@@ -163,12 +168,54 @@
   </si>
   <si>
     <t>Equality Lab</t>
+  </si>
+  <si>
+    <t>color-vision</t>
+  </si>
+  <si>
+    <t>rgb-bulbs</t>
+  </si>
+  <si>
+    <t>single-bulb</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>CONVERAL TED TO INDIVIDUAL PAGES</t>
+  </si>
+  <si>
+    <t>balancing-act</t>
+  </si>
+  <si>
+    <t>balance_lab</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>INTRO</t>
+  </si>
+  <si>
+    <t>vector-addition</t>
+  </si>
+  <si>
+    <t>explore1d</t>
+  </si>
+  <si>
+    <t>explore2d</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>equations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,6 +256,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -257,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,7 +342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,24 +551,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +594,11 @@
       <c r="H1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -564,7 +618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -584,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -604,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -627,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -650,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -670,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -693,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -716,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -739,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -762,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -773,7 +827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -799,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -822,7 +876,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -839,7 +896,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -847,7 +907,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -867,7 +930,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -879,6 +945,75 @@
       </c>
       <c r="E18" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +1027,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -904,7 +1039,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/html-simulations.xlsx
+++ b/html-simulations.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\trunk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>SNO</t>
   </si>
@@ -210,12 +205,27 @@
   </si>
   <si>
     <t>equations</t>
+  </si>
+  <si>
+    <t>number line integres</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>generic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,22 +561,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1013,6 +1023,32 @@
         <v>62</v>
       </c>
       <c r="I21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1027,7 +1063,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1039,7 +1075,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/html-simulations.xlsx
+++ b/html-simulations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>SNO</t>
   </si>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t>generic</t>
+  </si>
+  <si>
+    <t>graphing-lines</t>
+  </si>
+  <si>
+    <t>energy-forms-and-changes</t>
+  </si>
+  <si>
+    <t>systems</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>slope-intercept</t>
+  </si>
+  <si>
+    <t>point-slope</t>
+  </si>
+  <si>
+    <t>line-game</t>
   </si>
 </sst>
 </file>
@@ -561,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +593,7 @@
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1049,6 +1070,52 @@
         <v>67</v>
       </c>
       <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
         <v>53</v>
       </c>
     </row>
